--- a/Solubility data/Solubility.xlsx
+++ b/Solubility data/Solubility.xlsx
@@ -1,25 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wande\Dropbox (MIT)\MIT research\Metal RAC\Invar alloy\Draft\GitHub files\Solubility data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E3B25C-CBFF-4A49-983B-3FF61415E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-3450" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+  <si>
+    <t>T/C</t>
+  </si>
+  <si>
+    <t>T/K</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1000/T</t>
+  </si>
+  <si>
+    <t>Fe/wppm</t>
+  </si>
+  <si>
+    <t>Cr/wppm</t>
+  </si>
+  <si>
+    <t>Ni/wppm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +385,805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:W1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>C2+273</f>
+        <v>373</v>
+      </c>
+      <c r="E2">
+        <f>1000/D2</f>
+        <v>2.6809651474530831</v>
+      </c>
+      <c r="F2">
+        <f>$B$15-$C$15/D2</f>
+        <v>-4.9093297587131364</v>
+      </c>
+      <c r="G2">
+        <f>$B$16-$C$16/D2</f>
+        <v>-10.747345844504022</v>
+      </c>
+      <c r="H2">
+        <f>$B$17-$C$17/D2</f>
+        <v>1.597587131367292</v>
+      </c>
+      <c r="I2">
+        <f>10^F2</f>
+        <v>1.2321688951879837E-5</v>
+      </c>
+      <c r="J2">
+        <f>10^G2</f>
+        <v>1.7891804970238081E-11</v>
+      </c>
+      <c r="K2">
+        <f>10^H2</f>
+        <v>39.590148554920788</v>
+      </c>
+      <c r="O2">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P9" si="0">O2+273</f>
+        <v>673</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q9" si="1">1000/P2</f>
+        <v>1.4858841010401189</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="2">$B$15-$C$15/P2</f>
+        <v>-0.78630014858841069</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="3">$B$16-$C$16/P2</f>
+        <v>-2.4439227340267466</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="4">$B$17-$C$17/P2</f>
+        <v>3.2479940564635958</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:U9" si="5">10^R2</f>
+        <v>0.16356856794323521</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:V9" si="6">10^S2</f>
+        <v>3.5981334438556388E-3</v>
+      </c>
+      <c r="W2">
+        <f t="shared" ref="W2:W9" si="7">10^T2</f>
+        <v>1770.0847336600032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="8">C3+273</f>
+        <v>473</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="9">1000/D3</f>
+        <v>2.1141649048625792</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="10">$B$15-$C$15/D3</f>
+        <v>-2.9538689217758991</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="11">$B$16-$C$16/D3</f>
+        <v>-6.8092177589852012</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="12">$B$17-$C$17/D3</f>
+        <v>2.3803382663847779</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="13">10^F3</f>
+        <v>1.1120673194197966E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J12" si="14">10^G3</f>
+        <v>1.5516088248819767E-7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K12" si="15">10^H3</f>
+        <v>240.07020669523942</v>
+      </c>
+      <c r="O3">
+        <v>500</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>773</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>1.2936610608020698</v>
+      </c>
+      <c r="R3">
+        <f>$B$15-$C$15/P3</f>
+        <v>-0.1231306597671411</v>
+      </c>
+      <c r="S3">
+        <f>$B$16-$C$16/P3</f>
+        <v>-1.1083570504527822</v>
+      </c>
+      <c r="T3">
+        <f>$B$17-$C$17/P3</f>
+        <v>3.5134540750323415</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="5"/>
+        <v>0.75312894686190168</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="6"/>
+        <v>7.7918924521330937E-2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="7"/>
+        <v>3261.7755655101055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="8"/>
+        <v>573</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="9"/>
+        <v>1.7452006980802792</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="10"/>
+        <v>-1.6809424083769633</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="11"/>
+        <v>-4.2456544502617808</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="12"/>
+        <v>2.8898778359511343</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="13"/>
+        <v>2.0847673249549611E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="14"/>
+        <v>5.6799635632608528E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="15"/>
+        <v>776.02879436477326</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>873</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1.1454753722794959</v>
+      </c>
+      <c r="R4">
+        <f>$B$15-$C$15/P4</f>
+        <v>0.38810996563573852</v>
+      </c>
+      <c r="S4">
+        <f>$B$16-$C$16/P4</f>
+        <v>-7.8762886597938397E-2</v>
+      </c>
+      <c r="T4">
+        <f>$B$17-$C$17/P4</f>
+        <v>3.7180985108820161</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="5"/>
+        <v>2.4440493204321445</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="6"/>
+        <v>0.83413647696896498</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="7"/>
+        <v>5225.1469740401071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="8"/>
+        <v>673</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="9"/>
+        <v>1.4858841010401189</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="10"/>
+        <v>-0.78630014858841069</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="11"/>
+        <v>-2.4439227340267466</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="12"/>
+        <v>3.2479940564635958</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="13"/>
+        <v>0.16356856794323521</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="14"/>
+        <v>3.5981334438556388E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="15"/>
+        <v>1770.0847336600032</v>
+      </c>
+      <c r="O5">
+        <v>700</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>973</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1.0277492291880781</v>
+      </c>
+      <c r="R5">
+        <f>$B$15-$C$15/P5</f>
+        <v>0.79426515930113029</v>
+      </c>
+      <c r="S5">
+        <f>$B$16-$C$16/P5</f>
+        <v>0.73919835560123293</v>
+      </c>
+      <c r="T5">
+        <f>$B$17-$C$17/P5</f>
+        <v>3.8806783144912638</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="5"/>
+        <v>6.2268034777420391</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>5.4852743701048832</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>7597.6330551333394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="8"/>
+        <v>773</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="9"/>
+        <v>1.2936610608020698</v>
+      </c>
+      <c r="F6">
+        <f>$B$15-$C$15/D6</f>
+        <v>-0.1231306597671411</v>
+      </c>
+      <c r="G6">
+        <f>$B$16-$C$16/D6</f>
+        <v>-1.1083570504527822</v>
+      </c>
+      <c r="H6">
+        <f>$B$17-$C$17/D6</f>
+        <v>3.5134540750323415</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="13"/>
+        <v>0.75312894686190168</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="14"/>
+        <v>7.7918924521330937E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="15"/>
+        <v>3261.7755655101055</v>
+      </c>
+      <c r="O6">
+        <v>800</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1073</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>0.93196644920782856</v>
+      </c>
+      <c r="R6">
+        <f>$B$15-$C$15/P6</f>
+        <v>1.1247157502329914</v>
+      </c>
+      <c r="S6">
+        <f>$B$16-$C$16/P6</f>
+        <v>1.4046971109040074</v>
+      </c>
+      <c r="T6">
+        <f>$B$17-$C$17/P6</f>
+        <v>4.0129543336439886</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>13.326489155822062</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>25.392011780756171</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>10302.777803461899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="8"/>
+        <v>873</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="9"/>
+        <v>1.1454753722794959</v>
+      </c>
+      <c r="F7">
+        <f>$B$15-$C$15/D7</f>
+        <v>0.38810996563573852</v>
+      </c>
+      <c r="G7">
+        <f>$B$16-$C$16/D7</f>
+        <v>-7.8762886597938397E-2</v>
+      </c>
+      <c r="H7">
+        <f>$B$17-$C$17/D7</f>
+        <v>3.7180985108820161</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="13"/>
+        <v>2.4440493204321445</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="14"/>
+        <v>0.83413647696896498</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="15"/>
+        <v>5225.1469740401071</v>
+      </c>
+      <c r="O7">
+        <v>900</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1173</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0.85251491901108267</v>
+      </c>
+      <c r="R7">
+        <f>$B$15-$C$15/P7</f>
+        <v>1.3988235294117644</v>
+      </c>
+      <c r="S7">
+        <f>$B$16-$C$16/P7</f>
+        <v>1.9567263427109971</v>
+      </c>
+      <c r="T7">
+        <f>$B$17-$C$17/P7</f>
+        <v>4.1226768968456948</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="5"/>
+        <v>25.050911311076625</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>90.516206117441214</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>13264.07280009848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="8"/>
+        <v>973</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="9"/>
+        <v>1.0277492291880781</v>
+      </c>
+      <c r="F8">
+        <f>$B$15-$C$15/D8</f>
+        <v>0.79426515930113029</v>
+      </c>
+      <c r="G8">
+        <f>$B$16-$C$16/D8</f>
+        <v>0.73919835560123293</v>
+      </c>
+      <c r="H8">
+        <f>$B$17-$C$17/D8</f>
+        <v>3.8806783144912638</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="13"/>
+        <v>6.2268034777420391</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="14"/>
+        <v>5.4852743701048832</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="15"/>
+        <v>7597.6330551333394</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1273</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>0.78554595443833464</v>
+      </c>
+      <c r="R8">
+        <f>$B$15-$C$15/P8</f>
+        <v>1.6298664571877453</v>
+      </c>
+      <c r="S8">
+        <f>$B$16-$C$16/P8</f>
+        <v>2.4220267085624512</v>
+      </c>
+      <c r="T8">
+        <f>$B$17-$C$17/P8</f>
+        <v>4.2151610369206596</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="5"/>
+        <v>42.644836845678604</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>264.257126712218</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>16411.982186765566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="8"/>
+        <v>1073</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="9"/>
+        <v>0.93196644920782856</v>
+      </c>
+      <c r="F9">
+        <f>$B$15-$C$15/D9</f>
+        <v>1.1247157502329914</v>
+      </c>
+      <c r="G9">
+        <f>$B$16-$C$16/D9</f>
+        <v>1.4046971109040074</v>
+      </c>
+      <c r="H9">
+        <f>$B$17-$C$17/D9</f>
+        <v>4.0129543336439886</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="13"/>
+        <v>13.326489155822062</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="14"/>
+        <v>25.392011780756171</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="15"/>
+        <v>10302.777803461899</v>
+      </c>
+      <c r="O9">
+        <v>1100</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1373</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>0.72833211944646759</v>
+      </c>
+      <c r="R9">
+        <f>$B$15-$C$15/P9</f>
+        <v>1.8272541879096869</v>
+      </c>
+      <c r="S9">
+        <f>$B$16-$C$16/P9</f>
+        <v>2.8195484340859434</v>
+      </c>
+      <c r="T9">
+        <f>$B$17-$C$17/P9</f>
+        <v>4.2941733430444282</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="5"/>
+        <v>67.182194806965185</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>660.00683650055521</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>19686.719029267402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="8"/>
+        <v>1173</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="9"/>
+        <v>0.85251491901108267</v>
+      </c>
+      <c r="F10">
+        <f>$B$15-$C$15/D10</f>
+        <v>1.3988235294117644</v>
+      </c>
+      <c r="G10">
+        <f>$B$16-$C$16/D10</f>
+        <v>1.9567263427109971</v>
+      </c>
+      <c r="H10">
+        <f>$B$17-$C$17/D10</f>
+        <v>4.1226768968456948</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="13"/>
+        <v>25.050911311076625</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="14"/>
+        <v>90.516206117441214</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="15"/>
+        <v>13264.07280009848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="8"/>
+        <v>1273</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="9"/>
+        <v>0.78554595443833464</v>
+      </c>
+      <c r="F11">
+        <f>$B$15-$C$15/D11</f>
+        <v>1.6298664571877453</v>
+      </c>
+      <c r="G11">
+        <f>$B$16-$C$16/D11</f>
+        <v>2.4220267085624512</v>
+      </c>
+      <c r="H11">
+        <f>$B$17-$C$17/D11</f>
+        <v>4.2151610369206596</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="13"/>
+        <v>42.644836845678604</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="14"/>
+        <v>264.257126712218</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="15"/>
+        <v>16411.982186765566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="8"/>
+        <v>1373</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="9"/>
+        <v>0.72833211944646759</v>
+      </c>
+      <c r="F12">
+        <f>$B$15-$C$15/D12</f>
+        <v>1.8272541879096869</v>
+      </c>
+      <c r="G12">
+        <f>$B$16-$C$16/D12</f>
+        <v>2.8195484340859434</v>
+      </c>
+      <c r="H12">
+        <f>$B$17-$C$17/D12</f>
+        <v>4.2941733430444282</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="13"/>
+        <v>67.182194806965185</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="14"/>
+        <v>660.00683650055521</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="15"/>
+        <v>19686.719029267402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4.34</v>
+      </c>
+      <c r="C15">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>7.88</v>
+      </c>
+      <c r="C16">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>5.3</v>
+      </c>
+      <c r="C17">
+        <v>1381</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>